--- a/Code/Results/Cases/Case_0_72/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_72/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.028952010768385</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.031596449217135</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.028014588013041</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.033657579406928</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.025968634525129</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.034101479190414</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.034404109710959</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.030832637394564</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.036459297229214</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.035570021903981</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.02</v>
+      </c>
+      <c r="C3">
+        <v>1.034170720202418</v>
+      </c>
+      <c r="D3">
+        <v>1.036728927971546</v>
+      </c>
+      <c r="E3">
+        <v>1.03264031202221</v>
+      </c>
+      <c r="F3">
+        <v>1.038032480558572</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.026170082450034</v>
+      </c>
+      <c r="J3">
+        <v>1.038939259984083</v>
+      </c>
+      <c r="K3">
+        <v>1.039333648328483</v>
+      </c>
+      <c r="L3">
+        <v>1.035255938887152</v>
+      </c>
+      <c r="M3">
+        <v>1.0406337431722</v>
+      </c>
+      <c r="N3">
+        <v>1.040414672901259</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.02</v>
+      </c>
+      <c r="C4">
+        <v>1.037494963259599</v>
+      </c>
+      <c r="D4">
+        <v>1.039998222559137</v>
+      </c>
+      <c r="E4">
+        <v>1.035584723632774</v>
+      </c>
+      <c r="F4">
+        <v>1.040814943651425</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.026294312453233</v>
+      </c>
+      <c r="J4">
+        <v>1.042018670820853</v>
+      </c>
+      <c r="K4">
+        <v>1.042472118034572</v>
+      </c>
+      <c r="L4">
+        <v>1.038069738975888</v>
+      </c>
+      <c r="M4">
+        <v>1.043286792524657</v>
+      </c>
+      <c r="N4">
+        <v>1.043498456854631</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.02</v>
+      </c>
+      <c r="C5">
+        <v>1.038880404054434</v>
+      </c>
+      <c r="D5">
+        <v>1.041360755238174</v>
+      </c>
+      <c r="E5">
+        <v>1.036811355685237</v>
+      </c>
+      <c r="F5">
+        <v>1.04197353886322</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.02634510220487</v>
+      </c>
+      <c r="J5">
+        <v>1.04330154872661</v>
+      </c>
+      <c r="K5">
+        <v>1.043779755680752</v>
+      </c>
+      <c r="L5">
+        <v>1.039241538047158</v>
+      </c>
+      <c r="M5">
+        <v>1.04439104117657</v>
+      </c>
+      <c r="N5">
+        <v>1.044783156594163</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.02</v>
+      </c>
+      <c r="C6">
+        <v>1.03911233259005</v>
+      </c>
+      <c r="D6">
+        <v>1.041588848364831</v>
+      </c>
+      <c r="E6">
+        <v>1.037016669169032</v>
+      </c>
+      <c r="F6">
+        <v>1.042167430318595</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.026353546595128</v>
+      </c>
+      <c r="J6">
+        <v>1.043516276995005</v>
+      </c>
+      <c r="K6">
+        <v>1.043998637384425</v>
+      </c>
+      <c r="L6">
+        <v>1.03943764894657</v>
+      </c>
+      <c r="M6">
+        <v>1.044575810739921</v>
+      </c>
+      <c r="N6">
+        <v>1.044998189801328</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.02</v>
+      </c>
+      <c r="C7">
+        <v>1.037513522341977</v>
+      </c>
+      <c r="D7">
+        <v>1.0400164748009</v>
+      </c>
+      <c r="E7">
+        <v>1.03560115734666</v>
+      </c>
+      <c r="F7">
+        <v>1.04083046811999</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.026294996715962</v>
+      </c>
+      <c r="J7">
+        <v>1.042035858060828</v>
+      </c>
+      <c r="K7">
+        <v>1.042489636376349</v>
+      </c>
+      <c r="L7">
+        <v>1.038085439725682</v>
+      </c>
+      <c r="M7">
+        <v>1.043301590594895</v>
+      </c>
+      <c r="N7">
+        <v>1.043515668502458</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.02</v>
+      </c>
+      <c r="C8">
+        <v>1.030726915173976</v>
+      </c>
+      <c r="D8">
+        <v>1.033342029109745</v>
+      </c>
+      <c r="E8">
+        <v>1.029588255580914</v>
+      </c>
+      <c r="F8">
+        <v>1.035146384353832</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.026037999759479</v>
+      </c>
+      <c r="J8">
+        <v>1.035747285092544</v>
+      </c>
+      <c r="K8">
+        <v>1.0360809948709</v>
+      </c>
+      <c r="L8">
+        <v>1.032337811240817</v>
+      </c>
+      <c r="M8">
+        <v>1.037880289433232</v>
+      </c>
+      <c r="N8">
+        <v>1.037218165039249</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.02</v>
+      </c>
+      <c r="C9">
+        <v>1.018340229328441</v>
+      </c>
+      <c r="D9">
+        <v>1.021160005187182</v>
+      </c>
+      <c r="E9">
+        <v>1.018597141924656</v>
+      </c>
+      <c r="F9">
+        <v>1.024739166196347</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.025536899860166</v>
+      </c>
+      <c r="J9">
+        <v>1.02425235851887</v>
+      </c>
+      <c r="K9">
+        <v>1.024371765233133</v>
+      </c>
+      <c r="L9">
+        <v>1.021817555134745</v>
+      </c>
+      <c r="M9">
+        <v>1.027938921216094</v>
+      </c>
+      <c r="N9">
+        <v>1.025706914351355</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.02</v>
+      </c>
+      <c r="C10">
+        <v>1.009757827545068</v>
+      </c>
+      <c r="D10">
+        <v>1.012719540084381</v>
+      </c>
+      <c r="E10">
+        <v>1.010970591992977</v>
+      </c>
+      <c r="F10">
+        <v>1.017507558941352</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.025168367079807</v>
+      </c>
+      <c r="J10">
+        <v>1.016276199450575</v>
+      </c>
+      <c r="K10">
+        <v>1.016250432556088</v>
+      </c>
+      <c r="L10">
+        <v>1.014508067825916</v>
+      </c>
+      <c r="M10">
+        <v>1.021020556591099</v>
+      </c>
+      <c r="N10">
+        <v>1.017719428222304</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.02</v>
+      </c>
+      <c r="C11">
+        <v>1.005955616690954</v>
+      </c>
+      <c r="D11">
+        <v>1.008980281640532</v>
+      </c>
+      <c r="E11">
+        <v>1.007589241956196</v>
+      </c>
+      <c r="F11">
+        <v>1.014299219428179</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.025000120017741</v>
+      </c>
+      <c r="J11">
+        <v>1.012739818839495</v>
+      </c>
+      <c r="K11">
+        <v>1.012650529576149</v>
+      </c>
+      <c r="L11">
+        <v>1.011264966353397</v>
+      </c>
+      <c r="M11">
+        <v>1.017948680797791</v>
+      </c>
+      <c r="N11">
+        <v>1.014178025545128</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="C12">
+        <v>1.004529566770962</v>
+      </c>
+      <c r="D12">
+        <v>1.007577856795313</v>
+      </c>
+      <c r="E12">
+        <v>1.00632065100685</v>
+      </c>
+      <c r="F12">
+        <v>1.013095252375779</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.024936277475888</v>
+      </c>
+      <c r="J12">
+        <v>1.011413058801906</v>
+      </c>
+      <c r="K12">
+        <v>1.011300064687669</v>
+      </c>
+      <c r="L12">
+        <v>1.010047890135495</v>
+      </c>
+      <c r="M12">
+        <v>1.016795544291738</v>
+      </c>
+      <c r="N12">
+        <v>1.012849381356104</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.02</v>
+      </c>
+      <c r="C13">
+        <v>1.004836094915333</v>
+      </c>
+      <c r="D13">
+        <v>1.007879306046665</v>
+      </c>
+      <c r="E13">
+        <v>1.006593350981274</v>
+      </c>
+      <c r="F13">
+        <v>1.013354072997802</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.024950033688681</v>
+      </c>
+      <c r="J13">
+        <v>1.01169826326688</v>
+      </c>
+      <c r="K13">
+        <v>1.01159035906928</v>
+      </c>
+      <c r="L13">
+        <v>1.010309532325556</v>
+      </c>
+      <c r="M13">
+        <v>1.017043454876275</v>
+      </c>
+      <c r="N13">
+        <v>1.013134990844131</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.02</v>
+      </c>
+      <c r="C14">
+        <v>1.005838024205484</v>
+      </c>
+      <c r="D14">
+        <v>1.008864636973968</v>
+      </c>
+      <c r="E14">
+        <v>1.007484641460318</v>
+      </c>
+      <c r="F14">
+        <v>1.01419995305542</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.024994870548723</v>
+      </c>
+      <c r="J14">
+        <v>1.012630422195031</v>
+      </c>
+      <c r="K14">
+        <v>1.012539175784674</v>
+      </c>
+      <c r="L14">
+        <v>1.011164620639969</v>
+      </c>
+      <c r="M14">
+        <v>1.017853613094908</v>
+      </c>
+      <c r="N14">
+        <v>1.014068473544881</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.02</v>
+      </c>
+      <c r="C15">
+        <v>1.006453499695201</v>
+      </c>
+      <c r="D15">
+        <v>1.009469918242601</v>
+      </c>
+      <c r="E15">
+        <v>1.008032101452074</v>
+      </c>
+      <c r="F15">
+        <v>1.014719483772435</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.025022315966113</v>
+      </c>
+      <c r="J15">
+        <v>1.013202984108074</v>
+      </c>
+      <c r="K15">
+        <v>1.013121986232971</v>
+      </c>
+      <c r="L15">
+        <v>1.011689797483023</v>
+      </c>
+      <c r="M15">
+        <v>1.018351153747093</v>
+      </c>
+      <c r="N15">
+        <v>1.014641848561514</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.02</v>
+      </c>
+      <c r="C16">
+        <v>1.010008287449625</v>
+      </c>
+      <c r="D16">
+        <v>1.012965854958882</v>
+      </c>
+      <c r="E16">
+        <v>1.011193274753737</v>
+      </c>
+      <c r="F16">
+        <v>1.017718806668508</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.025179346604078</v>
+      </c>
+      <c r="J16">
+        <v>1.016509091231155</v>
+      </c>
+      <c r="K16">
+        <v>1.016487525298416</v>
+      </c>
+      <c r="L16">
+        <v>1.014721597275028</v>
+      </c>
+      <c r="M16">
+        <v>1.021222766575328</v>
+      </c>
+      <c r="N16">
+        <v>1.017952650735926</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.02</v>
+      </c>
+      <c r="C17">
+        <v>1.012214531105663</v>
+      </c>
+      <c r="D17">
+        <v>1.015135594524225</v>
+      </c>
+      <c r="E17">
+        <v>1.013154539000661</v>
+      </c>
+      <c r="F17">
+        <v>1.019579122211953</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.025275495439401</v>
+      </c>
+      <c r="J17">
+        <v>1.018560267597229</v>
+      </c>
+      <c r="K17">
+        <v>1.018575797554702</v>
+      </c>
+      <c r="L17">
+        <v>1.016601978580273</v>
+      </c>
+      <c r="M17">
+        <v>1.023003206540251</v>
+      </c>
+      <c r="N17">
+        <v>1.020006740007713</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.02</v>
+      </c>
+      <c r="C18">
+        <v>1.013493158973858</v>
+      </c>
+      <c r="D18">
+        <v>1.016393072970497</v>
+      </c>
+      <c r="E18">
+        <v>1.014290941018812</v>
+      </c>
+      <c r="F18">
+        <v>1.020656831033002</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.02533074414654</v>
+      </c>
+      <c r="J18">
+        <v>1.019748764454399</v>
+      </c>
+      <c r="K18">
+        <v>1.019785868761969</v>
+      </c>
+      <c r="L18">
+        <v>1.017691294059263</v>
+      </c>
+      <c r="M18">
+        <v>1.024034403897083</v>
+      </c>
+      <c r="N18">
+        <v>1.021196924666742</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.02</v>
+      </c>
+      <c r="C19">
+        <v>1.013927764993652</v>
+      </c>
+      <c r="D19">
+        <v>1.016820491295685</v>
+      </c>
+      <c r="E19">
+        <v>1.014677162258391</v>
+      </c>
+      <c r="F19">
+        <v>1.021023069629823</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.025349442519222</v>
+      </c>
+      <c r="J19">
+        <v>1.020152690473302</v>
+      </c>
+      <c r="K19">
+        <v>1.02019714068756</v>
+      </c>
+      <c r="L19">
+        <v>1.01806147490189</v>
+      </c>
+      <c r="M19">
+        <v>1.024384796107149</v>
+      </c>
+      <c r="N19">
+        <v>1.021601424306923</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.02</v>
+      </c>
+      <c r="C20">
+        <v>1.01197867976761</v>
+      </c>
+      <c r="D20">
+        <v>1.014903644837506</v>
+      </c>
+      <c r="E20">
+        <v>1.012944902099442</v>
+      </c>
+      <c r="F20">
+        <v>1.019380296237732</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.025265266088423</v>
+      </c>
+      <c r="J20">
+        <v>1.018341020365159</v>
+      </c>
+      <c r="K20">
+        <v>1.018352576880095</v>
+      </c>
+      <c r="L20">
+        <v>1.016401010095344</v>
+      </c>
+      <c r="M20">
+        <v>1.022812942205883</v>
+      </c>
+      <c r="N20">
+        <v>1.019787181419425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.02</v>
+      </c>
+      <c r="C21">
+        <v>1.005543367181106</v>
+      </c>
+      <c r="D21">
+        <v>1.008574860933559</v>
+      </c>
+      <c r="E21">
+        <v>1.007222532829148</v>
+      </c>
+      <c r="F21">
+        <v>1.013951206217136</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.024981704806898</v>
+      </c>
+      <c r="J21">
+        <v>1.0123562952417</v>
+      </c>
+      <c r="K21">
+        <v>1.012260146647435</v>
+      </c>
+      <c r="L21">
+        <v>1.010913167982902</v>
+      </c>
+      <c r="M21">
+        <v>1.01761538138578</v>
+      </c>
+      <c r="N21">
+        <v>1.013793957299833</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.02</v>
+      </c>
+      <c r="C22">
+        <v>1.001417287187514</v>
+      </c>
+      <c r="D22">
+        <v>1.004517168049035</v>
+      </c>
+      <c r="E22">
+        <v>1.003551307877697</v>
+      </c>
+      <c r="F22">
+        <v>1.010466494001307</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.024795593963395</v>
+      </c>
+      <c r="J22">
+        <v>1.008516719194172</v>
+      </c>
+      <c r="K22">
+        <v>1.008352211028761</v>
+      </c>
+      <c r="L22">
+        <v>1.007390353404897</v>
+      </c>
+      <c r="M22">
+        <v>1.014277070977598</v>
+      </c>
+      <c r="N22">
+        <v>1.009948928613912</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.02</v>
+      </c>
+      <c r="C23">
+        <v>1.003612468263097</v>
+      </c>
+      <c r="D23">
+        <v>1.006675956154427</v>
+      </c>
+      <c r="E23">
+        <v>1.00550470603363</v>
+      </c>
+      <c r="F23">
+        <v>1.012320796382856</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.024895012593292</v>
+      </c>
+      <c r="J23">
+        <v>1.010559698162332</v>
+      </c>
+      <c r="K23">
+        <v>1.010431493161603</v>
+      </c>
+      <c r="L23">
+        <v>1.009264979279624</v>
+      </c>
+      <c r="M23">
+        <v>1.016053678139966</v>
+      </c>
+      <c r="N23">
+        <v>1.01199480884654</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.02</v>
+      </c>
+      <c r="C24">
+        <v>1.012085276229346</v>
+      </c>
+      <c r="D24">
+        <v>1.015008477870947</v>
+      </c>
+      <c r="E24">
+        <v>1.013039651332057</v>
+      </c>
+      <c r="F24">
+        <v>1.019470159899778</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.025269890863549</v>
+      </c>
+      <c r="J24">
+        <v>1.018440113169688</v>
+      </c>
+      <c r="K24">
+        <v>1.018453465306384</v>
+      </c>
+      <c r="L24">
+        <v>1.016491842163542</v>
+      </c>
+      <c r="M24">
+        <v>1.022898936989707</v>
+      </c>
+      <c r="N24">
+        <v>1.019886414947103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.02</v>
+      </c>
+      <c r="C25">
+        <v>1.02159684466903</v>
+      </c>
+      <c r="D25">
+        <v>1.024362802022682</v>
+      </c>
+      <c r="E25">
+        <v>1.021488774145761</v>
+      </c>
+      <c r="F25">
+        <v>1.027479053178457</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.025672363867371</v>
+      </c>
+      <c r="J25">
+        <v>1.027276535311058</v>
+      </c>
+      <c r="K25">
+        <v>1.027451714377349</v>
+      </c>
+      <c r="L25">
+        <v>1.024586969380232</v>
+      </c>
+      <c r="M25">
+        <v>1.03055796452263</v>
+      </c>
+      <c r="N25">
+        <v>1.028735385821465</v>
       </c>
     </row>
   </sheetData>
